--- a/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/_chara.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/_chara.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16208DCC-85A2-464E-BAFD-3605D371ED0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8736BD9-D365-4CEF-B9ED-0B4BCCD9132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,40 +341,40 @@
     <t>Me salve!</t>
   </si>
   <si>
-    <t>(#self lança um olhar estranho para o vazio)</t>
-  </si>
-  <si>
-    <t>Eu me rendo! Você é bom.</t>
-  </si>
-  <si>
-    <t>Aceite isso como uma comemoração pela sua vitória.</t>
-  </si>
-  <si>
-    <t>Isso é tudo, fraco.</t>
-  </si>
-  <si>
-    <t>Não esperava que você voltasse vivo! Vai em frente, pegue sua recompensa prometida.</t>
-  </si>
-  <si>
-    <t>Eu sabia que o trabalho era demais para você. Que decepção.</t>
-  </si>
-  <si>
     <t>Me leve em segurança até meu destino.</t>
   </si>
   <si>
-    <t>(#self está muito empolgado na festa.)</t>
-  </si>
-  <si>
     <t>Me dê #1, ou sua vida estará perdida!</t>
   </si>
   <si>
-    <t>Tente-me.</t>
-  </si>
-  <si>
     <t>Eu me rendo. (Perde: #2)</t>
   </si>
   <si>
-    <t>Uma escolha sábia.</t>
+    <t>(#self olhou curiosamente para o ar).</t>
+  </si>
+  <si>
+    <t>Fui derrotado! Você venceu.</t>
+  </si>
+  <si>
+    <t>Leve isso como uma lembrança de sua vitória.</t>
+  </si>
+  <si>
+    <t>Isso é tudo, fracote.</t>
+  </si>
+  <si>
+    <t>Não achei que você voltaria vivo! Agora, receba sua recompensa prometida.</t>
+  </si>
+  <si>
+    <t>Parece que a tarefa era muito difícil para você. É uma pena.</t>
+  </si>
+  <si>
+    <t>(#self está empolgado com a festa).</t>
+  </si>
+  <si>
+    <t>Tente.</t>
+  </si>
+  <si>
+    <t>É uma decisão bastante sábia.</t>
   </si>
 </sst>
 </file>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
@@ -653,7 +653,7 @@
     <col min="7" max="8" width="7.42578125" customWidth="1"/>
     <col min="9" max="9" width="42.140625" customWidth="1"/>
     <col min="10" max="10" width="53.28515625" customWidth="1"/>
-    <col min="11" max="11" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="84.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1119,7 +1119,7 @@
         <v>60</v>
       </c>
       <c r="K74" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -1143,7 +1143,7 @@
         <v>63</v>
       </c>
       <c r="K79" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -1156,8 +1156,8 @@
       <c r="J80" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K80" s="3" t="s">
-        <v>103</v>
+      <c r="K80" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -1186,7 +1186,7 @@
         <v>68</v>
       </c>
       <c r="K85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -1214,8 +1214,8 @@
       <c r="J91" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>105</v>
+      <c r="K91" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -1238,8 +1238,8 @@
       <c r="J95" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K95" s="3" t="s">
-        <v>106</v>
+      <c r="K95" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -1262,8 +1262,8 @@
       <c r="J100" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>107</v>
+      <c r="K100" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -1286,8 +1286,8 @@
       <c r="J104" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K104" s="3" t="s">
-        <v>108</v>
+      <c r="K104" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -1311,7 +1311,7 @@
         <v>83</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -1335,7 +1335,7 @@
         <v>86</v>
       </c>
       <c r="K111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -1355,7 +1355,7 @@
         <v>89</v>
       </c>
       <c r="K112" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:11">
